--- a/Tabele odlucivanja.xlsx
+++ b/Tabele odlucivanja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A53A0-C671-4620-BCED-9DA64C4A16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB92345C-67DA-4F64-989E-5744DA07D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,21 +184,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -216,6 +212,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2609850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F51239-3F4E-ACEE-C2EB-0F749EF9BE1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="1952626"/>
+          <a:ext cx="5419725" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Tabela odlučivanja koristi se za bilježenje složenih poslovnih pravila koja sistem mora implementirati. Svaki red u tabeli predstavlja jedinstvenu kombinaciju uslova (ulazi) i rezultirajućih radnji (izlazi) sistema.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>U ovom slučaju, tablica odlučivanja odnosi se na </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="bs-Latn-BA"/>
+            <a:t>funkcionalnost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> za prikaz dokumenata u kontekstu odabrane godine studija, predmeta, vrste dokumenta i školske godine. Svaki slučaj u tabeli ima određene uslove (True/False) i rezultirajuće radnje.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,7 +572,7 @@
   <dimension ref="C3:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,52 +640,52 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -608,52 +696,52 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -664,52 +752,52 @@
       <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -717,116 +805,117 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="9" t="s">
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>